--- a/data/apps-master/1990.xlsx
+++ b/data/apps-master/1990.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00757A5A-2757-BD43-BF2F-ABAF63DEF5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0BAC6C-7195-0A49-9FA0-6C1AA1D7583E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="144">
   <si>
     <t>Date</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Own Goal</t>
   </si>
   <si>
-    <t>Steve Mungal</t>
-  </si>
-  <si>
     <t>Shot</t>
   </si>
   <si>
@@ -3271,7 +3268,7 @@
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3590,7 +3587,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3607,7 +3604,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>11</v>
@@ -3630,7 +3627,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -3650,7 +3647,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -3670,7 +3667,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -3750,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -4056,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F31">
         <v>11</v>
@@ -4076,7 +4073,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F32">
         <v>11</v>
@@ -4096,7 +4093,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F33">
         <v>11</v>
@@ -4694,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5816,7 +5813,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -5873,16 +5870,16 @@
         <v>131</v>
       </c>
       <c r="G67" t="s">
+        <v>135</v>
+      </c>
+      <c r="H67" t="s">
         <v>136</v>
-      </c>
-      <c r="H67" t="s">
-        <v>137</v>
       </c>
       <c r="L67" t="b">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -5902,10 +5899,10 @@
         <v>126</v>
       </c>
       <c r="G68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -5928,19 +5925,19 @@
         <v>118</v>
       </c>
       <c r="G69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K69" t="b">
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -6212,7 +6209,7 @@
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6229,7 +6226,7 @@
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -6246,7 +6243,7 @@
         <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -7571,7 +7568,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -7608,7 +7605,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -7628,7 +7625,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -7648,7 +7645,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -7668,7 +7665,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -7714,7 +7711,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -8214,7 +8211,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -8234,7 +8231,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -8254,7 +8251,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -8274,7 +8271,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -8294,7 +8291,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -8314,7 +8311,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -8334,7 +8331,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -8354,7 +8351,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -8374,7 +8371,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -8394,7 +8391,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -8414,7 +8411,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -8434,7 +8431,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -8454,7 +8451,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -8474,7 +8471,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -8494,7 +8491,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -8514,7 +8511,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -8534,7 +8531,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -8554,7 +8551,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -8574,7 +8571,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -8594,7 +8591,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -8614,7 +8611,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -8634,7 +8631,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -8654,7 +8651,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -8674,13 +8671,13 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -10187,7 +10184,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -10731,7 +10728,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -11260,7 +11257,7 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -12602,7 +12599,7 @@
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H61">
         <v>60</v>
@@ -13136,7 +13133,7 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -14025,7 +14022,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -14328,7 +14325,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -14434,7 +14431,7 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/apps-master/1990.xlsx
+++ b/data/apps-master/1990.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisowen/Desktop/tranmere-web/data/apps-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0BAC6C-7195-0A49-9FA0-6C1AA1D7583E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C036F4F-7C19-5E42-9941-B273A9BB7D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="144">
   <si>
     <t>Date</t>
   </si>
@@ -459,13 +459,13 @@
     <t>Cross</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Dave Martindale</t>
   </si>
   <si>
     <t>Steve Mungall</t>
+  </si>
+  <si>
+    <t>Jimmy Harvey</t>
   </si>
 </sst>
 </file>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3268,7 +3268,7 @@
         <v>10</v>
       </c>
       <c r="G56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3587,7 +3587,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3604,7 +3604,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9">
         <v>11</v>
@@ -3627,7 +3627,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -3647,7 +3647,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11">
         <v>11</v>
@@ -3667,7 +3667,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -3747,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -4053,7 +4053,7 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F31">
         <v>11</v>
@@ -4073,7 +4073,7 @@
         <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F32">
         <v>11</v>
@@ -4093,7 +4093,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F33">
         <v>11</v>
@@ -4691,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5813,7 +5813,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -6209,7 +6209,7 @@
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6226,7 +6226,7 @@
         <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -6243,7 +6243,7 @@
         <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -6376,7 +6376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7568,7 +7570,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -7605,7 +7607,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -7625,7 +7627,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -7645,7 +7647,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -7665,7 +7667,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -7711,7 +7713,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -8211,7 +8213,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -8231,7 +8233,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -8251,7 +8253,7 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -8271,7 +8273,7 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -8291,7 +8293,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -8311,7 +8313,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -8331,7 +8333,7 @@
         <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -8351,7 +8353,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -8371,7 +8373,7 @@
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -8391,7 +8393,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -8411,7 +8413,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -8431,7 +8433,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -8451,7 +8453,7 @@
         <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -8471,7 +8473,7 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -8491,7 +8493,7 @@
         <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -8511,7 +8513,7 @@
         <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -8531,7 +8533,7 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -8551,7 +8553,7 @@
         <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -8571,7 +8573,7 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -8591,7 +8593,7 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -8611,7 +8613,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -8631,7 +8633,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -8651,7 +8653,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -8671,13 +8673,13 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59">
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -8749,8 +8751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9067,7 +9069,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -9087,7 +9089,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -9953,7 +9955,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -9973,7 +9975,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -10019,7 +10021,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -10184,7 +10186,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -10728,7 +10730,7 @@
         <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -11257,7 +11259,7 @@
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -11349,8 +11351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12599,7 +12601,7 @@
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H61">
         <v>60</v>
@@ -12619,7 +12621,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -12634,8 +12636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13133,7 +13135,7 @@
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -13907,6 +13909,9 @@
       </c>
       <c r="F60">
         <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -13958,8 +13963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14022,7 +14027,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -14325,7 +14330,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -14431,7 +14436,7 @@
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -15206,10 +15211,13 @@
         <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F60">
         <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -15246,10 +15254,13 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F62">
         <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -15262,7 +15273,7 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16539,6 +16550,9 @@
       <c r="F62">
         <v>9</v>
       </c>
+      <c r="G62" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
